--- a/ProyectoFinal/05 Poblacion/direccion.xlsx
+++ b/ProyectoFinal/05 Poblacion/direccion.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="539">
   <si>
     <t>iddireccion</t>
   </si>
@@ -964,6 +964,678 @@
   </si>
   <si>
     <t>Benemérit</t>
+  </si>
+  <si>
+    <t>calle</t>
+  </si>
+  <si>
+    <t>Scoville</t>
+  </si>
+  <si>
+    <t>High Crossing</t>
+  </si>
+  <si>
+    <t>Armistice</t>
+  </si>
+  <si>
+    <t>Sloan</t>
+  </si>
+  <si>
+    <t>Village Green</t>
+  </si>
+  <si>
+    <t>Toban</t>
+  </si>
+  <si>
+    <t>Kennedy</t>
+  </si>
+  <si>
+    <t>Corben</t>
+  </si>
+  <si>
+    <t>Crownhardt</t>
+  </si>
+  <si>
+    <t>Pierstorff</t>
+  </si>
+  <si>
+    <t>Sachtjen</t>
+  </si>
+  <si>
+    <t>Merrick</t>
+  </si>
+  <si>
+    <t>Clyde Gallagher</t>
+  </si>
+  <si>
+    <t>Haas</t>
+  </si>
+  <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>Rusk</t>
+  </si>
+  <si>
+    <t>Crowley</t>
+  </si>
+  <si>
+    <t>Jenifer</t>
+  </si>
+  <si>
+    <t>Acker</t>
+  </si>
+  <si>
+    <t>Atwood</t>
+  </si>
+  <si>
+    <t>Buhler</t>
+  </si>
+  <si>
+    <t>Kenwood</t>
+  </si>
+  <si>
+    <t>Vernon</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>Golden Leaf</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
+    <t>Morningstar</t>
+  </si>
+  <si>
+    <t>Grim</t>
+  </si>
+  <si>
+    <t>Kingsford</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Prairieview</t>
+  </si>
+  <si>
+    <t>Meadow Valley</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Kings</t>
+  </si>
+  <si>
+    <t>Hintze</t>
+  </si>
+  <si>
+    <t>Orin</t>
+  </si>
+  <si>
+    <t>Loomis</t>
+  </si>
+  <si>
+    <t>Badeau</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>Sundown</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>Manley</t>
+  </si>
+  <si>
+    <t>Goodland</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Hollow Ridge</t>
+  </si>
+  <si>
+    <t>Fair Oaks</t>
+  </si>
+  <si>
+    <t>Lukken</t>
+  </si>
+  <si>
+    <t>Straubel</t>
+  </si>
+  <si>
+    <t>Westend</t>
+  </si>
+  <si>
+    <t>Spaight</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Stone Corner</t>
+  </si>
+  <si>
+    <t>Eagan</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>Novick</t>
+  </si>
+  <si>
+    <t>Oak Valley</t>
+  </si>
+  <si>
+    <t>Comanche</t>
+  </si>
+  <si>
+    <t>Dahle</t>
+  </si>
+  <si>
+    <t>Derek</t>
+  </si>
+  <si>
+    <t>Manufacturers</t>
+  </si>
+  <si>
+    <t>Graedel</t>
+  </si>
+  <si>
+    <t>Riverside</t>
+  </si>
+  <si>
+    <t>Hanover</t>
+  </si>
+  <si>
+    <t>Rowland</t>
+  </si>
+  <si>
+    <t>Farwell</t>
+  </si>
+  <si>
+    <t>Carey</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Corscot</t>
+  </si>
+  <si>
+    <t>New Castle</t>
+  </si>
+  <si>
+    <t>Messerschmidt</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Crest Line</t>
+  </si>
+  <si>
+    <t>Norway Maple</t>
+  </si>
+  <si>
+    <t>Artisan</t>
+  </si>
+  <si>
+    <t>Sommers</t>
+  </si>
+  <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t>Boyd</t>
+  </si>
+  <si>
+    <t>Knutson</t>
+  </si>
+  <si>
+    <t>Havey</t>
+  </si>
+  <si>
+    <t>Westerfield</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Moose</t>
+  </si>
+  <si>
+    <t>Kedzie</t>
+  </si>
+  <si>
+    <t>Lakewood</t>
+  </si>
+  <si>
+    <t>Onsgard</t>
+  </si>
+  <si>
+    <t>Oak</t>
+  </si>
+  <si>
+    <t>Katie</t>
+  </si>
+  <si>
+    <t>Stoughton</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Cottonwood</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
+    <t>Schmedeman</t>
+  </si>
+  <si>
+    <t>Coleman</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Ludington</t>
+  </si>
+  <si>
+    <t>Veith</t>
+  </si>
+  <si>
+    <t>Glacier Hill</t>
+  </si>
+  <si>
+    <t>Pawling</t>
+  </si>
+  <si>
+    <t>Roxbury</t>
+  </si>
+  <si>
+    <t>Beilfuss</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Eagle Crest</t>
+  </si>
+  <si>
+    <t>Northview</t>
+  </si>
+  <si>
+    <t>Portage</t>
+  </si>
+  <si>
+    <t>Fremont</t>
+  </si>
+  <si>
+    <t>Evergreen</t>
+  </si>
+  <si>
+    <t>Schurz</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>Dunning</t>
+  </si>
+  <si>
+    <t>Lotheville</t>
+  </si>
+  <si>
+    <t>Arrowood</t>
+  </si>
+  <si>
+    <t>Dovetail</t>
+  </si>
+  <si>
+    <t>Mifflin</t>
+  </si>
+  <si>
+    <t>Westport</t>
+  </si>
+  <si>
+    <t>Anthes</t>
+  </si>
+  <si>
+    <t>Blackbird</t>
+  </si>
+  <si>
+    <t>Bashford</t>
+  </si>
+  <si>
+    <t>Merchant</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Springview</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Glendale</t>
+  </si>
+  <si>
+    <t>Park Meadow</t>
+  </si>
+  <si>
+    <t>Talmadge</t>
+  </si>
+  <si>
+    <t>Butternut</t>
+  </si>
+  <si>
+    <t>Reindahl</t>
+  </si>
+  <si>
+    <t>Buell</t>
+  </si>
+  <si>
+    <t>Amoth</t>
+  </si>
+  <si>
+    <t>Algoma</t>
+  </si>
+  <si>
+    <t>Anniversary</t>
+  </si>
+  <si>
+    <t>Bellgrove</t>
+  </si>
+  <si>
+    <t>Porter</t>
+  </si>
+  <si>
+    <t>Rutledge</t>
+  </si>
+  <si>
+    <t>Spohn</t>
+  </si>
+  <si>
+    <t>Tomscot</t>
+  </si>
+  <si>
+    <t>Emmet</t>
+  </si>
+  <si>
+    <t>Jenna</t>
+  </si>
+  <si>
+    <t>Maple Wood</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Magdeline</t>
+  </si>
+  <si>
+    <t>Maywood</t>
+  </si>
+  <si>
+    <t>Debra</t>
+  </si>
+  <si>
+    <t>Muir</t>
+  </si>
+  <si>
+    <t>Petterle</t>
+  </si>
+  <si>
+    <t>Sutherland</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Carioca</t>
+  </si>
+  <si>
+    <t>Fuller</t>
+  </si>
+  <si>
+    <t>Memorial</t>
+  </si>
+  <si>
+    <t>Heffernan</t>
+  </si>
+  <si>
+    <t>Anzinger</t>
+  </si>
+  <si>
+    <t>Delladonna</t>
+  </si>
+  <si>
+    <t>Shoshone</t>
+  </si>
+  <si>
+    <t>Luster</t>
+  </si>
+  <si>
+    <t>Quincy</t>
+  </si>
+  <si>
+    <t>Roth</t>
+  </si>
+  <si>
+    <t>Jana</t>
+  </si>
+  <si>
+    <t>Kipling</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>Welch</t>
+  </si>
+  <si>
+    <t>Dixon</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Banding</t>
+  </si>
+  <si>
+    <t>Lakewood Gardens</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Dapin</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>Vahlen</t>
+  </si>
+  <si>
+    <t>Hoepker</t>
+  </si>
+  <si>
+    <t>Cardinal</t>
+  </si>
+  <si>
+    <t>Moland</t>
+  </si>
+  <si>
+    <t>Merry</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Rockefeller</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>Chive</t>
+  </si>
+  <si>
+    <t>Kensington</t>
+  </si>
+  <si>
+    <t>Kropf</t>
+  </si>
+  <si>
+    <t>Waywood</t>
+  </si>
+  <si>
+    <t>Mcguire</t>
+  </si>
+  <si>
+    <t>Bartelt</t>
+  </si>
+  <si>
+    <t>Clemons</t>
+  </si>
+  <si>
+    <t>Schiller</t>
+  </si>
+  <si>
+    <t>Burning Wood</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>John Wall</t>
+  </si>
+  <si>
+    <t>Golf View</t>
+  </si>
+  <si>
+    <t>Ronald Regan</t>
+  </si>
+  <si>
+    <t>Fisk</t>
+  </si>
+  <si>
+    <t>Old Shore</t>
+  </si>
+  <si>
+    <t>Del Mar</t>
+  </si>
+  <si>
+    <t>Laurel</t>
+  </si>
+  <si>
+    <t>Oneill</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>Summit</t>
+  </si>
+  <si>
+    <t>Mcbride</t>
+  </si>
+  <si>
+    <t>Hoard</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Grover</t>
+  </si>
+  <si>
+    <t>Marquette</t>
+  </si>
+  <si>
+    <t>Shelley</t>
+  </si>
+  <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Moulton</t>
+  </si>
+  <si>
+    <t>Starling</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Northfield</t>
+  </si>
+  <si>
+    <t>Di Loreto</t>
+  </si>
+  <si>
+    <t>Hauk</t>
+  </si>
+  <si>
+    <t>Gina</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Green Ridge</t>
+  </si>
+  <si>
+    <t>Loeprich</t>
+  </si>
+  <si>
+    <t>Maple</t>
+  </si>
+  <si>
+    <t>Pond</t>
+  </si>
+  <si>
+    <t>Bobwhite</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Dexter</t>
+  </si>
+  <si>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>Bay</t>
   </si>
 </sst>
 </file>
@@ -1770,10 +2442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G301"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,7 +2454,7 @@
     <col min="4" max="4" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1799,13 +2471,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1821,14 +2496,17 @@
       <c r="E2">
         <v>78677</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G2">
         <v>458</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>941</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1844,14 +2522,17 @@
       <c r="E3">
         <v>62584</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3">
         <v>345</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>495</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1867,14 +2548,17 @@
       <c r="E4">
         <v>61089</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4">
         <v>748</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>491</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1890,14 +2574,17 @@
       <c r="E5">
         <v>49253</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G5">
         <v>985</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>960</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1913,14 +2600,17 @@
       <c r="E6">
         <v>31373</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G6">
         <v>224</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1936,14 +2626,17 @@
       <c r="E7">
         <v>65218</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G7">
         <v>299</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1959,14 +2652,17 @@
       <c r="E8">
         <v>83286</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G8">
         <v>127</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1982,14 +2678,17 @@
       <c r="E9">
         <v>36423</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G9">
         <v>61</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>753</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2005,14 +2704,17 @@
       <c r="E10">
         <v>79891</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10">
         <v>64</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2028,14 +2730,17 @@
       <c r="E11">
         <v>64831</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>325</v>
+      </c>
+      <c r="G11">
         <v>908</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2051,14 +2756,17 @@
       <c r="E12">
         <v>89429</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>326</v>
+      </c>
+      <c r="G12">
         <v>906</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>831</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2074,14 +2782,17 @@
       <c r="E13">
         <v>57667</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>327</v>
+      </c>
+      <c r="G13">
         <v>103</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>836</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2097,14 +2808,17 @@
       <c r="E14">
         <v>97916</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>328</v>
+      </c>
+      <c r="G14">
         <v>149</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2120,14 +2834,17 @@
       <c r="E15">
         <v>28013</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>329</v>
+      </c>
+      <c r="G15">
         <v>106</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>917</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2143,14 +2860,17 @@
       <c r="E16">
         <v>49229</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G16">
         <v>113</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>635</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2166,14 +2886,17 @@
       <c r="E17">
         <v>50877</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>321</v>
+      </c>
+      <c r="G17">
         <v>310</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>582</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2189,14 +2912,17 @@
       <c r="E18">
         <v>91782</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="s">
+        <v>331</v>
+      </c>
+      <c r="G18">
         <v>645</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>911</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2212,14 +2938,17 @@
       <c r="E19">
         <v>76756</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>332</v>
+      </c>
+      <c r="G19">
         <v>955</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>920</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2235,14 +2964,17 @@
       <c r="E20">
         <v>26859</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="s">
+        <v>333</v>
+      </c>
+      <c r="G20">
         <v>985</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2258,14 +2990,17 @@
       <c r="E21">
         <v>36884</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>334</v>
+      </c>
+      <c r="G21">
         <v>11</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2281,14 +3016,17 @@
       <c r="E22">
         <v>70837</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>335</v>
+      </c>
+      <c r="G22">
         <v>2</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2304,14 +3042,17 @@
       <c r="E23">
         <v>64733</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G23">
         <v>631</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>822</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2327,14 +3068,17 @@
       <c r="E24">
         <v>77799</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>337</v>
+      </c>
+      <c r="G24">
         <v>241</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>888</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2350,14 +3094,17 @@
       <c r="E25">
         <v>10911</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>338</v>
+      </c>
+      <c r="G25">
         <v>889</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>364</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2373,14 +3120,17 @@
       <c r="E26">
         <v>75001</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="s">
+        <v>339</v>
+      </c>
+      <c r="G26">
         <v>327</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>388</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2396,14 +3146,17 @@
       <c r="E27">
         <v>90351</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>340</v>
+      </c>
+      <c r="G27">
         <v>278</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2419,14 +3172,17 @@
       <c r="E28">
         <v>68655</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="s">
+        <v>341</v>
+      </c>
+      <c r="G28">
         <v>703</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2442,14 +3198,17 @@
       <c r="E29">
         <v>75300</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="s">
+        <v>342</v>
+      </c>
+      <c r="G29">
         <v>252</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>674</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2465,14 +3224,17 @@
       <c r="E30">
         <v>29574</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>343</v>
+      </c>
+      <c r="G30">
         <v>782</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>748</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2488,14 +3250,17 @@
       <c r="E31">
         <v>23240</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>344</v>
+      </c>
+      <c r="G31">
         <v>50</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>668</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2511,14 +3276,17 @@
       <c r="E32">
         <v>60820</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="s">
+        <v>345</v>
+      </c>
+      <c r="G32">
         <v>852</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>992</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2534,14 +3302,17 @@
       <c r="E33">
         <v>45592</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="s">
+        <v>346</v>
+      </c>
+      <c r="G33">
         <v>358</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>290</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2557,14 +3328,17 @@
       <c r="E34">
         <v>88757</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="s">
+        <v>347</v>
+      </c>
+      <c r="G34">
         <v>115</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2580,14 +3354,17 @@
       <c r="E35">
         <v>48762</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="s">
+        <v>332</v>
+      </c>
+      <c r="G35">
         <v>869</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>685</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2603,14 +3380,17 @@
       <c r="E36">
         <v>75879</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="s">
+        <v>348</v>
+      </c>
+      <c r="G36">
         <v>657</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>726</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2626,14 +3406,17 @@
       <c r="E37">
         <v>13782</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="s">
+        <v>349</v>
+      </c>
+      <c r="G37">
         <v>386</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>357</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2649,14 +3432,17 @@
       <c r="E38">
         <v>66218</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="s">
+        <v>350</v>
+      </c>
+      <c r="G38">
         <v>92</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2672,14 +3458,17 @@
       <c r="E39">
         <v>74768</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="s">
+        <v>351</v>
+      </c>
+      <c r="G39">
         <v>596</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>621</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2695,14 +3484,17 @@
       <c r="E40">
         <v>36752</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="s">
+        <v>352</v>
+      </c>
+      <c r="G40">
         <v>437</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>495</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2718,14 +3510,17 @@
       <c r="E41">
         <v>29537</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="s">
+        <v>353</v>
+      </c>
+      <c r="G41">
         <v>333</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>361</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2741,14 +3536,17 @@
       <c r="E42">
         <v>83473</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42">
         <v>532</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>608</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2764,14 +3562,17 @@
       <c r="E43">
         <v>82272</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="s">
+        <v>355</v>
+      </c>
+      <c r="G43">
         <v>40</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>828</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2787,14 +3588,17 @@
       <c r="E44">
         <v>27213</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="s">
+        <v>356</v>
+      </c>
+      <c r="G44">
         <v>617</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2810,14 +3614,17 @@
       <c r="E45">
         <v>34871</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="s">
+        <v>357</v>
+      </c>
+      <c r="G45">
         <v>367</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>997</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2833,14 +3640,17 @@
       <c r="E46">
         <v>82322</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="s">
+        <v>358</v>
+      </c>
+      <c r="G46">
         <v>683</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2856,14 +3666,17 @@
       <c r="E47">
         <v>34072</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="s">
+        <v>359</v>
+      </c>
+      <c r="G47">
         <v>9</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2879,14 +3692,17 @@
       <c r="E48">
         <v>47342</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="s">
+        <v>360</v>
+      </c>
+      <c r="G48">
         <v>973</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>443</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2902,14 +3718,17 @@
       <c r="E49">
         <v>61330</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="s">
+        <v>361</v>
+      </c>
+      <c r="G49">
         <v>779</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>641</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2925,14 +3744,17 @@
       <c r="E50">
         <v>34333</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="s">
+        <v>362</v>
+      </c>
+      <c r="G50">
         <v>754</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>491</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2948,14 +3770,17 @@
       <c r="E51">
         <v>81338</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="s">
+        <v>363</v>
+      </c>
+      <c r="G51">
         <v>323</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>371</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2971,14 +3796,17 @@
       <c r="E52">
         <v>87711</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="s">
+        <v>364</v>
+      </c>
+      <c r="G52">
         <v>685</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>632</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2994,14 +3822,17 @@
       <c r="E53">
         <v>89056</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="s">
+        <v>365</v>
+      </c>
+      <c r="G53">
         <v>811</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>801</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3017,14 +3848,17 @@
       <c r="E54">
         <v>27415</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="s">
+        <v>366</v>
+      </c>
+      <c r="G54">
         <v>285</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>735</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3040,14 +3874,17 @@
       <c r="E55">
         <v>49632</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="s">
+        <v>367</v>
+      </c>
+      <c r="G55">
         <v>699</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3063,14 +3900,17 @@
       <c r="E56">
         <v>36764</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="s">
+        <v>368</v>
+      </c>
+      <c r="G56">
         <v>621</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>338</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3086,14 +3926,17 @@
       <c r="E57">
         <v>24388</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="s">
+        <v>369</v>
+      </c>
+      <c r="G57">
         <v>454</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>552</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3109,14 +3952,17 @@
       <c r="E58">
         <v>79788</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="s">
+        <v>370</v>
+      </c>
+      <c r="G58">
         <v>753</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>308</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3132,14 +3978,17 @@
       <c r="E59">
         <v>75027</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="s">
+        <v>371</v>
+      </c>
+      <c r="G59">
         <v>601</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>488</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3155,14 +4004,17 @@
       <c r="E60">
         <v>67949</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="s">
+        <v>372</v>
+      </c>
+      <c r="G60">
         <v>910</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>965</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3178,14 +4030,17 @@
       <c r="E61">
         <v>43439</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="s">
+        <v>373</v>
+      </c>
+      <c r="G61">
         <v>58</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3201,14 +4056,17 @@
       <c r="E62">
         <v>77853</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="s">
+        <v>374</v>
+      </c>
+      <c r="G62">
         <v>543</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>747</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3224,14 +4082,17 @@
       <c r="E63">
         <v>45715</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="s">
+        <v>375</v>
+      </c>
+      <c r="G63">
         <v>544</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>683</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3247,14 +4108,17 @@
       <c r="E64">
         <v>91728</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="s">
+        <v>376</v>
+      </c>
+      <c r="G64">
         <v>883</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>852</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3270,14 +4134,17 @@
       <c r="E65">
         <v>82095</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="s">
+        <v>377</v>
+      </c>
+      <c r="G65">
         <v>567</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>238</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3293,14 +4160,17 @@
       <c r="E66">
         <v>94271</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="s">
+        <v>378</v>
+      </c>
+      <c r="G66">
         <v>607</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3316,14 +4186,17 @@
       <c r="E67">
         <v>39027</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="s">
+        <v>379</v>
+      </c>
+      <c r="G67">
         <v>672</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3339,14 +4212,17 @@
       <c r="E68">
         <v>20364</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="s">
+        <v>380</v>
+      </c>
+      <c r="G68">
         <v>993</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>727</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3362,14 +4238,17 @@
       <c r="E69">
         <v>41812</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="s">
+        <v>335</v>
+      </c>
+      <c r="G69">
         <v>88</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3385,14 +4264,17 @@
       <c r="E70">
         <v>12211</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="s">
+        <v>381</v>
+      </c>
+      <c r="G70">
         <v>159</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>506</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3408,14 +4290,17 @@
       <c r="E71">
         <v>64985</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="s">
+        <v>382</v>
+      </c>
+      <c r="G71">
         <v>93</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>582</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3431,14 +4316,17 @@
       <c r="E72">
         <v>53888</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="s">
+        <v>383</v>
+      </c>
+      <c r="G72">
         <v>745</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>787</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3454,14 +4342,17 @@
       <c r="E73">
         <v>33476</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="s">
+        <v>381</v>
+      </c>
+      <c r="G73">
         <v>783</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>945</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3477,14 +4368,17 @@
       <c r="E74">
         <v>44387</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="s">
+        <v>384</v>
+      </c>
+      <c r="G74">
         <v>89</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>897</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3500,14 +4394,17 @@
       <c r="E75">
         <v>58337</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="s">
+        <v>385</v>
+      </c>
+      <c r="G75">
         <v>86</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3523,14 +4420,17 @@
       <c r="E76">
         <v>18641</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="s">
+        <v>386</v>
+      </c>
+      <c r="G76">
         <v>105</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3546,14 +4446,17 @@
       <c r="E77">
         <v>25197</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="s">
+        <v>387</v>
+      </c>
+      <c r="G77">
         <v>51</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>981</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3569,14 +4472,17 @@
       <c r="E78">
         <v>54459</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="s">
+        <v>388</v>
+      </c>
+      <c r="G78">
         <v>563</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3592,14 +4498,17 @@
       <c r="E79">
         <v>96197</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="s">
+        <v>348</v>
+      </c>
+      <c r="G79">
         <v>59</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3615,14 +4524,17 @@
       <c r="E80">
         <v>40336</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="s">
+        <v>389</v>
+      </c>
+      <c r="G80">
         <v>319</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>398</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3638,14 +4550,17 @@
       <c r="E81">
         <v>93296</v>
       </c>
-      <c r="F81">
+      <c r="F81" t="s">
+        <v>390</v>
+      </c>
+      <c r="G81">
         <v>652</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>714</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3661,14 +4576,17 @@
       <c r="E82">
         <v>70716</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="s">
+        <v>391</v>
+      </c>
+      <c r="G82">
         <v>997</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>674</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3684,14 +4602,17 @@
       <c r="E83">
         <v>47322</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="s">
+        <v>392</v>
+      </c>
+      <c r="G83">
         <v>155</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>588</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3707,14 +4628,17 @@
       <c r="E84">
         <v>70338</v>
       </c>
-      <c r="F84">
+      <c r="F84" t="s">
+        <v>340</v>
+      </c>
+      <c r="G84">
         <v>239</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3730,14 +4654,17 @@
       <c r="E85">
         <v>61178</v>
       </c>
-      <c r="F85">
+      <c r="F85" t="s">
+        <v>393</v>
+      </c>
+      <c r="G85">
         <v>4</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>614</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3753,14 +4680,17 @@
       <c r="E86">
         <v>28477</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="s">
+        <v>394</v>
+      </c>
+      <c r="G86">
         <v>316</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>333</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3776,14 +4706,17 @@
       <c r="E87">
         <v>78170</v>
       </c>
-      <c r="F87">
+      <c r="F87" t="s">
+        <v>395</v>
+      </c>
+      <c r="G87">
         <v>682</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>801</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3799,14 +4732,17 @@
       <c r="E88">
         <v>21222</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="s">
+        <v>396</v>
+      </c>
+      <c r="G88">
         <v>764</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>461</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3822,14 +4758,17 @@
       <c r="E89">
         <v>14624</v>
       </c>
-      <c r="F89">
+      <c r="F89" t="s">
+        <v>397</v>
+      </c>
+      <c r="G89">
         <v>704</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>551</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3845,14 +4784,17 @@
       <c r="E90">
         <v>99077</v>
       </c>
-      <c r="F90">
+      <c r="F90" t="s">
+        <v>398</v>
+      </c>
+      <c r="G90">
         <v>260</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>393</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3868,14 +4810,17 @@
       <c r="E91">
         <v>92247</v>
       </c>
-      <c r="F91">
+      <c r="F91" t="s">
+        <v>344</v>
+      </c>
+      <c r="G91">
         <v>631</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>773</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3891,14 +4836,17 @@
       <c r="E92">
         <v>10888</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="s">
+        <v>399</v>
+      </c>
+      <c r="G92">
         <v>804</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>956</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3914,14 +4862,17 @@
       <c r="E93">
         <v>76787</v>
       </c>
-      <c r="F93">
+      <c r="F93" t="s">
+        <v>400</v>
+      </c>
+      <c r="G93">
         <v>924</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>858</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3937,14 +4888,17 @@
       <c r="E94">
         <v>38684</v>
       </c>
-      <c r="F94">
+      <c r="F94" t="s">
+        <v>401</v>
+      </c>
+      <c r="G94">
         <v>58</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>865</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3960,14 +4914,17 @@
       <c r="E95">
         <v>45834</v>
       </c>
-      <c r="F95">
+      <c r="F95" t="s">
+        <v>402</v>
+      </c>
+      <c r="G95">
         <v>14</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>638</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3983,14 +4940,17 @@
       <c r="E96">
         <v>42756</v>
       </c>
-      <c r="F96">
+      <c r="F96" t="s">
+        <v>403</v>
+      </c>
+      <c r="G96">
         <v>85</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>302</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4006,14 +4966,17 @@
       <c r="E97">
         <v>14025</v>
       </c>
-      <c r="F97">
+      <c r="F97" t="s">
+        <v>404</v>
+      </c>
+      <c r="G97">
         <v>301</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>451</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4029,14 +4992,17 @@
       <c r="E98">
         <v>78458</v>
       </c>
-      <c r="F98">
+      <c r="F98" t="s">
+        <v>405</v>
+      </c>
+      <c r="G98">
         <v>572</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>979</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4052,14 +5018,17 @@
       <c r="E99">
         <v>79930</v>
       </c>
-      <c r="F99">
+      <c r="F99" t="s">
+        <v>406</v>
+      </c>
+      <c r="G99">
         <v>157</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>420</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4075,14 +5044,17 @@
       <c r="E100">
         <v>52543</v>
       </c>
-      <c r="F100">
+      <c r="F100" t="s">
+        <v>407</v>
+      </c>
+      <c r="G100">
         <v>230</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>267</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4098,14 +5070,17 @@
       <c r="E101">
         <v>50612</v>
       </c>
-      <c r="F101">
+      <c r="F101" t="s">
+        <v>408</v>
+      </c>
+      <c r="G101">
         <v>663</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>926</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4121,14 +5096,17 @@
       <c r="E102">
         <v>59801</v>
       </c>
-      <c r="F102">
+      <c r="F102" t="s">
+        <v>385</v>
+      </c>
+      <c r="G102">
         <v>75</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>439</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4144,14 +5122,17 @@
       <c r="E103">
         <v>28860</v>
       </c>
-      <c r="F103">
+      <c r="F103" t="s">
+        <v>320</v>
+      </c>
+      <c r="G103">
         <v>597</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>369</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4167,14 +5148,17 @@
       <c r="E104">
         <v>92813</v>
       </c>
-      <c r="F104">
+      <c r="F104" t="s">
+        <v>355</v>
+      </c>
+      <c r="G104">
         <v>216</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>515</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4190,14 +5174,17 @@
       <c r="E105">
         <v>41551</v>
       </c>
-      <c r="F105">
+      <c r="F105" t="s">
+        <v>322</v>
+      </c>
+      <c r="G105">
         <v>945</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>142</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4213,14 +5200,17 @@
       <c r="E106">
         <v>73270</v>
       </c>
-      <c r="F106">
+      <c r="F106" t="s">
+        <v>409</v>
+      </c>
+      <c r="G106">
         <v>64</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>659</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4236,14 +5226,17 @@
       <c r="E107">
         <v>41056</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="s">
+        <v>410</v>
+      </c>
+      <c r="G107">
         <v>948</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>720</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4259,14 +5252,17 @@
       <c r="E108">
         <v>36332</v>
       </c>
-      <c r="F108">
+      <c r="F108" t="s">
+        <v>411</v>
+      </c>
+      <c r="G108">
         <v>732</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4282,14 +5278,17 @@
       <c r="E109">
         <v>51939</v>
       </c>
-      <c r="F109">
+      <c r="F109" t="s">
+        <v>351</v>
+      </c>
+      <c r="G109">
         <v>411</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>310</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4305,14 +5304,17 @@
       <c r="E110">
         <v>59581</v>
       </c>
-      <c r="F110">
+      <c r="F110" t="s">
+        <v>367</v>
+      </c>
+      <c r="G110">
         <v>527</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>599</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4328,14 +5330,17 @@
       <c r="E111">
         <v>40836</v>
       </c>
-      <c r="F111">
+      <c r="F111" t="s">
+        <v>412</v>
+      </c>
+      <c r="G111">
         <v>367</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>731</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4351,14 +5356,17 @@
       <c r="E112">
         <v>92150</v>
       </c>
-      <c r="F112">
+      <c r="F112" t="s">
+        <v>379</v>
+      </c>
+      <c r="G112">
         <v>435</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>291</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4374,14 +5382,17 @@
       <c r="E113">
         <v>55838</v>
       </c>
-      <c r="F113">
+      <c r="F113" t="s">
+        <v>413</v>
+      </c>
+      <c r="G113">
         <v>576</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>249</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4397,14 +5408,17 @@
       <c r="E114">
         <v>37044</v>
       </c>
-      <c r="F114">
+      <c r="F114" t="s">
+        <v>358</v>
+      </c>
+      <c r="G114">
         <v>976</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>727</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4420,14 +5434,17 @@
       <c r="E115">
         <v>31050</v>
       </c>
-      <c r="F115">
+      <c r="F115" t="s">
+        <v>414</v>
+      </c>
+      <c r="G115">
         <v>410</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>585</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4443,14 +5460,17 @@
       <c r="E116">
         <v>22992</v>
       </c>
-      <c r="F116">
+      <c r="F116" t="s">
+        <v>415</v>
+      </c>
+      <c r="G116">
         <v>278</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>963</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4466,14 +5486,17 @@
       <c r="E117">
         <v>43708</v>
       </c>
-      <c r="F117">
+      <c r="F117" t="s">
+        <v>416</v>
+      </c>
+      <c r="G117">
         <v>887</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>893</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4489,14 +5512,17 @@
       <c r="E118">
         <v>31359</v>
       </c>
-      <c r="F118">
+      <c r="F118" t="s">
+        <v>417</v>
+      </c>
+      <c r="G118">
         <v>455</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>819</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4512,14 +5538,17 @@
       <c r="E119">
         <v>64810</v>
       </c>
-      <c r="F119">
+      <c r="F119" t="s">
+        <v>418</v>
+      </c>
+      <c r="G119">
         <v>428</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>156</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4535,14 +5564,17 @@
       <c r="E120">
         <v>31502</v>
       </c>
-      <c r="F120">
+      <c r="F120" t="s">
+        <v>419</v>
+      </c>
+      <c r="G120">
         <v>634</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>940</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4558,14 +5590,17 @@
       <c r="E121">
         <v>56715</v>
       </c>
-      <c r="F121">
+      <c r="F121" t="s">
+        <v>336</v>
+      </c>
+      <c r="G121">
         <v>513</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4581,14 +5616,17 @@
       <c r="E122">
         <v>49833</v>
       </c>
-      <c r="F122">
+      <c r="F122" t="s">
+        <v>420</v>
+      </c>
+      <c r="G122">
         <v>401</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>618</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4604,14 +5642,17 @@
       <c r="E123">
         <v>55287</v>
       </c>
-      <c r="F123">
+      <c r="F123" t="s">
+        <v>421</v>
+      </c>
+      <c r="G123">
         <v>531</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>695</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4627,14 +5668,17 @@
       <c r="E124">
         <v>59982</v>
       </c>
-      <c r="F124">
+      <c r="F124" t="s">
+        <v>422</v>
+      </c>
+      <c r="G124">
         <v>878</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>731</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4650,14 +5694,17 @@
       <c r="E125">
         <v>88362</v>
       </c>
-      <c r="F125">
+      <c r="F125" t="s">
+        <v>423</v>
+      </c>
+      <c r="G125">
         <v>658</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>177</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4673,14 +5720,17 @@
       <c r="E126">
         <v>14289</v>
       </c>
-      <c r="F126">
+      <c r="F126" t="s">
+        <v>424</v>
+      </c>
+      <c r="G126">
         <v>712</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>181</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4696,14 +5746,17 @@
       <c r="E127">
         <v>29971</v>
       </c>
-      <c r="F127">
+      <c r="F127" t="s">
+        <v>425</v>
+      </c>
+      <c r="G127">
         <v>561</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4719,14 +5772,17 @@
       <c r="E128">
         <v>29289</v>
       </c>
-      <c r="F128">
+      <c r="F128" t="s">
+        <v>426</v>
+      </c>
+      <c r="G128">
         <v>843</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>389</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4742,14 +5798,17 @@
       <c r="E129">
         <v>83087</v>
       </c>
-      <c r="F129">
+      <c r="F129" t="s">
+        <v>427</v>
+      </c>
+      <c r="G129">
         <v>246</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4765,14 +5824,17 @@
       <c r="E130">
         <v>63916</v>
       </c>
-      <c r="F130">
+      <c r="F130" t="s">
+        <v>384</v>
+      </c>
+      <c r="G130">
         <v>674</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>144</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4788,14 +5850,17 @@
       <c r="E131">
         <v>34016</v>
       </c>
-      <c r="F131">
+      <c r="F131" t="s">
+        <v>428</v>
+      </c>
+      <c r="G131">
         <v>571</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>76</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4811,14 +5876,17 @@
       <c r="E132">
         <v>15117</v>
       </c>
-      <c r="F132">
+      <c r="F132" t="s">
+        <v>429</v>
+      </c>
+      <c r="G132">
         <v>585</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>649</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4834,14 +5902,17 @@
       <c r="E133">
         <v>87430</v>
       </c>
-      <c r="F133">
+      <c r="F133" t="s">
+        <v>336</v>
+      </c>
+      <c r="G133">
         <v>487</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>494</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4857,14 +5928,17 @@
       <c r="E134">
         <v>85332</v>
       </c>
-      <c r="F134">
+      <c r="F134" t="s">
+        <v>430</v>
+      </c>
+      <c r="G134">
         <v>338</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>752</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4880,14 +5954,17 @@
       <c r="E135">
         <v>72152</v>
       </c>
-      <c r="F135">
+      <c r="F135" t="s">
+        <v>431</v>
+      </c>
+      <c r="G135">
         <v>936</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>110</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4903,14 +5980,17 @@
       <c r="E136">
         <v>73592</v>
       </c>
-      <c r="F136">
+      <c r="F136" t="s">
+        <v>432</v>
+      </c>
+      <c r="G136">
         <v>544</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>787</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4926,14 +6006,17 @@
       <c r="E137">
         <v>68072</v>
       </c>
-      <c r="F137">
+      <c r="F137" t="s">
+        <v>433</v>
+      </c>
+      <c r="G137">
         <v>725</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>369</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4949,14 +6032,17 @@
       <c r="E138">
         <v>42440</v>
       </c>
-      <c r="F138">
+      <c r="F138" t="s">
+        <v>434</v>
+      </c>
+      <c r="G138">
         <v>810</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>656</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4972,14 +6058,17 @@
       <c r="E139">
         <v>99214</v>
       </c>
-      <c r="F139">
+      <c r="F139" t="s">
+        <v>435</v>
+      </c>
+      <c r="G139">
         <v>870</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>731</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4995,14 +6084,17 @@
       <c r="E140">
         <v>22770</v>
       </c>
-      <c r="F140">
+      <c r="F140" t="s">
+        <v>319</v>
+      </c>
+      <c r="G140">
         <v>633</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>879</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5018,14 +6110,17 @@
       <c r="E141">
         <v>33343</v>
       </c>
-      <c r="F141">
+      <c r="F141" t="s">
+        <v>420</v>
+      </c>
+      <c r="G141">
         <v>666</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>232</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5041,14 +6136,17 @@
       <c r="E142">
         <v>92595</v>
       </c>
-      <c r="F142">
+      <c r="F142" t="s">
+        <v>436</v>
+      </c>
+      <c r="G142">
         <v>498</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>111</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5064,14 +6162,17 @@
       <c r="E143">
         <v>46184</v>
       </c>
-      <c r="F143">
+      <c r="F143" t="s">
+        <v>437</v>
+      </c>
+      <c r="G143">
         <v>887</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>377</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5087,14 +6188,17 @@
       <c r="E144">
         <v>33229</v>
       </c>
-      <c r="F144">
+      <c r="F144" t="s">
+        <v>438</v>
+      </c>
+      <c r="G144">
         <v>304</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>85</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5110,14 +6214,17 @@
       <c r="E145">
         <v>61205</v>
       </c>
-      <c r="F145">
+      <c r="F145" t="s">
+        <v>439</v>
+      </c>
+      <c r="G145">
         <v>41</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>202</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5133,14 +6240,17 @@
       <c r="E146">
         <v>30906</v>
       </c>
-      <c r="F146">
+      <c r="F146" t="s">
+        <v>325</v>
+      </c>
+      <c r="G146">
         <v>943</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>717</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5156,14 +6266,17 @@
       <c r="E147">
         <v>20210</v>
       </c>
-      <c r="F147">
+      <c r="F147" t="s">
+        <v>440</v>
+      </c>
+      <c r="G147">
         <v>397</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>312</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5179,14 +6292,17 @@
       <c r="E148">
         <v>86301</v>
       </c>
-      <c r="F148">
+      <c r="F148" t="s">
+        <v>441</v>
+      </c>
+      <c r="G148">
         <v>155</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>878</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5202,14 +6318,17 @@
       <c r="E149">
         <v>98474</v>
       </c>
-      <c r="F149">
+      <c r="F149" t="s">
+        <v>442</v>
+      </c>
+      <c r="G149">
         <v>793</v>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>289</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5225,14 +6344,17 @@
       <c r="E150">
         <v>54382</v>
       </c>
-      <c r="F150">
+      <c r="F150" t="s">
+        <v>443</v>
+      </c>
+      <c r="G150">
         <v>195</v>
       </c>
-      <c r="G150">
+      <c r="H150">
         <v>426</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5248,14 +6370,17 @@
       <c r="E151">
         <v>47582</v>
       </c>
-      <c r="F151">
+      <c r="F151" t="s">
+        <v>444</v>
+      </c>
+      <c r="G151">
         <v>431</v>
       </c>
-      <c r="G151">
+      <c r="H151">
         <v>380</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5271,14 +6396,17 @@
       <c r="E152">
         <v>88007</v>
       </c>
-      <c r="F152">
+      <c r="F152" t="s">
+        <v>445</v>
+      </c>
+      <c r="G152">
         <v>724</v>
       </c>
-      <c r="G152">
+      <c r="H152">
         <v>305</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5294,14 +6422,17 @@
       <c r="E153">
         <v>57889</v>
       </c>
-      <c r="F153">
+      <c r="F153" t="s">
+        <v>446</v>
+      </c>
+      <c r="G153">
         <v>670</v>
       </c>
-      <c r="G153">
+      <c r="H153">
         <v>761</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5317,14 +6448,17 @@
       <c r="E154">
         <v>53367</v>
       </c>
-      <c r="F154">
+      <c r="F154" t="s">
+        <v>402</v>
+      </c>
+      <c r="G154">
         <v>309</v>
       </c>
-      <c r="G154">
+      <c r="H154">
         <v>440</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5340,14 +6474,17 @@
       <c r="E155">
         <v>30951</v>
       </c>
-      <c r="F155">
+      <c r="F155" t="s">
+        <v>447</v>
+      </c>
+      <c r="G155">
         <v>758</v>
       </c>
-      <c r="G155">
+      <c r="H155">
         <v>996</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5363,14 +6500,17 @@
       <c r="E156">
         <v>17039</v>
       </c>
-      <c r="F156">
+      <c r="F156" t="s">
+        <v>448</v>
+      </c>
+      <c r="G156">
         <v>922</v>
       </c>
-      <c r="G156">
+      <c r="H156">
         <v>166</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5386,14 +6526,17 @@
       <c r="E157">
         <v>74458</v>
       </c>
-      <c r="F157">
+      <c r="F157" t="s">
+        <v>449</v>
+      </c>
+      <c r="G157">
         <v>846</v>
       </c>
-      <c r="G157">
+      <c r="H157">
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5409,14 +6552,17 @@
       <c r="E158">
         <v>57705</v>
       </c>
-      <c r="F158">
+      <c r="F158" t="s">
+        <v>450</v>
+      </c>
+      <c r="G158">
         <v>742</v>
       </c>
-      <c r="G158">
+      <c r="H158">
         <v>593</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5432,14 +6578,17 @@
       <c r="E159">
         <v>55741</v>
       </c>
-      <c r="F159">
+      <c r="F159" t="s">
+        <v>451</v>
+      </c>
+      <c r="G159">
         <v>344</v>
       </c>
-      <c r="G159">
+      <c r="H159">
         <v>94</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5455,14 +6604,17 @@
       <c r="E160">
         <v>62439</v>
       </c>
-      <c r="F160">
+      <c r="F160" t="s">
+        <v>452</v>
+      </c>
+      <c r="G160">
         <v>974</v>
       </c>
-      <c r="G160">
+      <c r="H160">
         <v>273</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5478,14 +6630,17 @@
       <c r="E161">
         <v>86264</v>
       </c>
-      <c r="F161">
+      <c r="F161" t="s">
+        <v>453</v>
+      </c>
+      <c r="G161">
         <v>959</v>
       </c>
-      <c r="G161">
+      <c r="H161">
         <v>996</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -5501,14 +6656,17 @@
       <c r="E162">
         <v>29791</v>
       </c>
-      <c r="F162">
+      <c r="F162" t="s">
+        <v>454</v>
+      </c>
+      <c r="G162">
         <v>611</v>
       </c>
-      <c r="G162">
+      <c r="H162">
         <v>445</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -5524,14 +6682,17 @@
       <c r="E163">
         <v>69379</v>
       </c>
-      <c r="F163">
+      <c r="F163" t="s">
+        <v>455</v>
+      </c>
+      <c r="G163">
         <v>557</v>
       </c>
-      <c r="G163">
+      <c r="H163">
         <v>298</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5547,14 +6708,17 @@
       <c r="E164">
         <v>83019</v>
       </c>
-      <c r="F164">
+      <c r="F164" t="s">
+        <v>456</v>
+      </c>
+      <c r="G164">
         <v>842</v>
       </c>
-      <c r="G164">
+      <c r="H164">
         <v>51</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -5570,14 +6734,17 @@
       <c r="E165">
         <v>90429</v>
       </c>
-      <c r="F165">
+      <c r="F165" t="s">
+        <v>318</v>
+      </c>
+      <c r="G165">
         <v>976</v>
       </c>
-      <c r="G165">
+      <c r="H165">
         <v>181</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -5593,14 +6760,17 @@
       <c r="E166">
         <v>99898</v>
       </c>
-      <c r="F166">
+      <c r="F166" t="s">
+        <v>457</v>
+      </c>
+      <c r="G166">
         <v>433</v>
       </c>
-      <c r="G166">
+      <c r="H166">
         <v>295</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -5616,14 +6786,17 @@
       <c r="E167">
         <v>51344</v>
       </c>
-      <c r="F167">
+      <c r="F167" t="s">
+        <v>458</v>
+      </c>
+      <c r="G167">
         <v>416</v>
       </c>
-      <c r="G167">
+      <c r="H167">
         <v>649</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -5639,14 +6812,17 @@
       <c r="E168">
         <v>47234</v>
       </c>
-      <c r="F168">
+      <c r="F168" t="s">
+        <v>459</v>
+      </c>
+      <c r="G168">
         <v>867</v>
       </c>
-      <c r="G168">
+      <c r="H168">
         <v>381</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -5662,14 +6838,17 @@
       <c r="E169">
         <v>37276</v>
       </c>
-      <c r="F169">
+      <c r="F169" t="s">
+        <v>415</v>
+      </c>
+      <c r="G169">
         <v>492</v>
       </c>
-      <c r="G169">
+      <c r="H169">
         <v>103</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -5685,14 +6864,17 @@
       <c r="E170">
         <v>71733</v>
       </c>
-      <c r="F170">
+      <c r="F170" t="s">
+        <v>460</v>
+      </c>
+      <c r="G170">
         <v>588</v>
       </c>
-      <c r="G170">
+      <c r="H170">
         <v>118</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -5708,14 +6890,17 @@
       <c r="E171">
         <v>91285</v>
       </c>
-      <c r="F171">
+      <c r="F171" t="s">
+        <v>461</v>
+      </c>
+      <c r="G171">
         <v>484</v>
       </c>
-      <c r="G171">
+      <c r="H171">
         <v>128</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -5731,14 +6916,17 @@
       <c r="E172">
         <v>83194</v>
       </c>
-      <c r="F172">
+      <c r="F172" t="s">
+        <v>462</v>
+      </c>
+      <c r="G172">
         <v>420</v>
       </c>
-      <c r="G172">
+      <c r="H172">
         <v>433</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -5754,14 +6942,17 @@
       <c r="E173">
         <v>56994</v>
       </c>
-      <c r="F173">
+      <c r="F173" t="s">
+        <v>327</v>
+      </c>
+      <c r="G173">
         <v>711</v>
       </c>
-      <c r="G173">
+      <c r="H173">
         <v>307</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -5777,14 +6968,17 @@
       <c r="E174">
         <v>85659</v>
       </c>
-      <c r="F174">
+      <c r="F174" t="s">
+        <v>463</v>
+      </c>
+      <c r="G174">
         <v>942</v>
       </c>
-      <c r="G174">
+      <c r="H174">
         <v>576</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -5800,14 +6994,17 @@
       <c r="E175">
         <v>92912</v>
       </c>
-      <c r="F175">
+      <c r="F175" t="s">
+        <v>464</v>
+      </c>
+      <c r="G175">
         <v>66</v>
       </c>
-      <c r="G175">
+      <c r="H175">
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -5823,14 +7020,17 @@
       <c r="E176">
         <v>13540</v>
       </c>
-      <c r="F176">
+      <c r="F176" t="s">
+        <v>465</v>
+      </c>
+      <c r="G176">
         <v>295</v>
       </c>
-      <c r="G176">
+      <c r="H176">
         <v>652</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5846,14 +7046,17 @@
       <c r="E177">
         <v>26867</v>
       </c>
-      <c r="F177">
+      <c r="F177" t="s">
+        <v>466</v>
+      </c>
+      <c r="G177">
         <v>404</v>
       </c>
-      <c r="G177">
+      <c r="H177">
         <v>148</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5869,14 +7072,17 @@
       <c r="E178">
         <v>25953</v>
       </c>
-      <c r="F178">
+      <c r="F178" t="s">
+        <v>364</v>
+      </c>
+      <c r="G178">
         <v>204</v>
       </c>
-      <c r="G178">
+      <c r="H178">
         <v>153</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -5892,14 +7098,17 @@
       <c r="E179">
         <v>12350</v>
       </c>
-      <c r="F179">
+      <c r="F179" t="s">
+        <v>467</v>
+      </c>
+      <c r="G179">
         <v>882</v>
       </c>
-      <c r="G179">
+      <c r="H179">
         <v>322</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -5915,14 +7124,17 @@
       <c r="E180">
         <v>93052</v>
       </c>
-      <c r="F180">
+      <c r="F180" t="s">
+        <v>443</v>
+      </c>
+      <c r="G180">
         <v>156</v>
       </c>
-      <c r="G180">
+      <c r="H180">
         <v>650</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -5938,14 +7150,17 @@
       <c r="E181">
         <v>60690</v>
       </c>
-      <c r="F181">
+      <c r="F181" t="s">
+        <v>468</v>
+      </c>
+      <c r="G181">
         <v>51</v>
       </c>
-      <c r="G181">
+      <c r="H181">
         <v>564</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -5961,14 +7176,17 @@
       <c r="E182">
         <v>55924</v>
       </c>
-      <c r="F182">
+      <c r="F182" t="s">
+        <v>469</v>
+      </c>
+      <c r="G182">
         <v>736</v>
       </c>
-      <c r="G182">
+      <c r="H182">
         <v>590</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -5984,14 +7202,17 @@
       <c r="E183">
         <v>85214</v>
       </c>
-      <c r="F183">
+      <c r="F183" t="s">
+        <v>462</v>
+      </c>
+      <c r="G183">
         <v>81</v>
       </c>
-      <c r="G183">
+      <c r="H183">
         <v>397</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6007,14 +7228,17 @@
       <c r="E184">
         <v>40516</v>
       </c>
-      <c r="F184">
+      <c r="F184" t="s">
+        <v>470</v>
+      </c>
+      <c r="G184">
         <v>974</v>
       </c>
-      <c r="G184">
+      <c r="H184">
         <v>670</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -6030,14 +7254,17 @@
       <c r="E185">
         <v>28167</v>
       </c>
-      <c r="F185">
+      <c r="F185" t="s">
+        <v>471</v>
+      </c>
+      <c r="G185">
         <v>106</v>
       </c>
-      <c r="G185">
+      <c r="H185">
         <v>644</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -6053,14 +7280,17 @@
       <c r="E186">
         <v>50104</v>
       </c>
-      <c r="F186">
+      <c r="F186" t="s">
+        <v>435</v>
+      </c>
+      <c r="G186">
         <v>775</v>
       </c>
-      <c r="G186">
+      <c r="H186">
         <v>953</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -6076,14 +7306,17 @@
       <c r="E187">
         <v>31388</v>
       </c>
-      <c r="F187">
+      <c r="F187" t="s">
+        <v>371</v>
+      </c>
+      <c r="G187">
         <v>996</v>
       </c>
-      <c r="G187">
+      <c r="H187">
         <v>903</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6099,14 +7332,17 @@
       <c r="E188">
         <v>53838</v>
       </c>
-      <c r="F188">
+      <c r="F188" t="s">
+        <v>472</v>
+      </c>
+      <c r="G188">
         <v>810</v>
       </c>
-      <c r="G188">
+      <c r="H188">
         <v>640</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6122,14 +7358,17 @@
       <c r="E189">
         <v>70719</v>
       </c>
-      <c r="F189">
+      <c r="F189" t="s">
+        <v>440</v>
+      </c>
+      <c r="G189">
         <v>709</v>
       </c>
-      <c r="G189">
+      <c r="H189">
         <v>211</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6145,14 +7384,17 @@
       <c r="E190">
         <v>96977</v>
       </c>
-      <c r="F190">
+      <c r="F190" t="s">
+        <v>473</v>
+      </c>
+      <c r="G190">
         <v>716</v>
       </c>
-      <c r="G190">
+      <c r="H190">
         <v>124</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6168,14 +7410,17 @@
       <c r="E191">
         <v>52832</v>
       </c>
-      <c r="F191">
+      <c r="F191" t="s">
+        <v>474</v>
+      </c>
+      <c r="G191">
         <v>637</v>
       </c>
-      <c r="G191">
+      <c r="H191">
         <v>301</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6191,14 +7436,17 @@
       <c r="E192">
         <v>35283</v>
       </c>
-      <c r="F192">
+      <c r="F192" t="s">
+        <v>475</v>
+      </c>
+      <c r="G192">
         <v>412</v>
       </c>
-      <c r="G192">
+      <c r="H192">
         <v>258</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6214,14 +7462,17 @@
       <c r="E193">
         <v>91867</v>
       </c>
-      <c r="F193">
+      <c r="F193" t="s">
+        <v>476</v>
+      </c>
+      <c r="G193">
         <v>965</v>
       </c>
-      <c r="G193">
+      <c r="H193">
         <v>919</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6237,14 +7488,17 @@
       <c r="E194">
         <v>90368</v>
       </c>
-      <c r="F194">
+      <c r="F194" t="s">
+        <v>477</v>
+      </c>
+      <c r="G194">
         <v>312</v>
       </c>
-      <c r="G194">
+      <c r="H194">
         <v>977</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6260,14 +7514,17 @@
       <c r="E195">
         <v>34566</v>
       </c>
-      <c r="F195">
+      <c r="F195" t="s">
+        <v>421</v>
+      </c>
+      <c r="G195">
         <v>478</v>
       </c>
-      <c r="G195">
+      <c r="H195">
         <v>172</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6283,14 +7540,17 @@
       <c r="E196">
         <v>77741</v>
       </c>
-      <c r="F196">
+      <c r="F196" t="s">
+        <v>370</v>
+      </c>
+      <c r="G196">
         <v>272</v>
       </c>
-      <c r="G196">
+      <c r="H196">
         <v>33</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6306,14 +7566,17 @@
       <c r="E197">
         <v>28448</v>
       </c>
-      <c r="F197">
+      <c r="F197" t="s">
+        <v>432</v>
+      </c>
+      <c r="G197">
         <v>291</v>
       </c>
-      <c r="G197">
+      <c r="H197">
         <v>488</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6329,14 +7592,17 @@
       <c r="E198">
         <v>14007</v>
       </c>
-      <c r="F198">
+      <c r="F198" t="s">
+        <v>478</v>
+      </c>
+      <c r="G198">
         <v>30</v>
       </c>
-      <c r="G198">
+      <c r="H198">
         <v>854</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6352,14 +7618,17 @@
       <c r="E199">
         <v>48620</v>
       </c>
-      <c r="F199">
+      <c r="F199" t="s">
+        <v>479</v>
+      </c>
+      <c r="G199">
         <v>868</v>
       </c>
-      <c r="G199">
+      <c r="H199">
         <v>314</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -6375,14 +7644,17 @@
       <c r="E200">
         <v>58537</v>
       </c>
-      <c r="F200">
+      <c r="F200" t="s">
+        <v>480</v>
+      </c>
+      <c r="G200">
         <v>168</v>
       </c>
-      <c r="G200">
+      <c r="H200">
         <v>226</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -6398,14 +7670,17 @@
       <c r="E201">
         <v>21459</v>
       </c>
-      <c r="F201">
+      <c r="F201" t="s">
+        <v>481</v>
+      </c>
+      <c r="G201">
         <v>829</v>
       </c>
-      <c r="G201">
+      <c r="H201">
         <v>691</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -6421,14 +7696,17 @@
       <c r="E202">
         <v>94730</v>
       </c>
-      <c r="F202">
+      <c r="F202" t="s">
+        <v>406</v>
+      </c>
+      <c r="G202">
         <v>920</v>
       </c>
-      <c r="G202">
+      <c r="H202">
         <v>752</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -6444,14 +7722,17 @@
       <c r="E203">
         <v>11450</v>
       </c>
-      <c r="F203">
+      <c r="F203" t="s">
+        <v>482</v>
+      </c>
+      <c r="G203">
         <v>457</v>
       </c>
-      <c r="G203">
+      <c r="H203">
         <v>331</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -6467,14 +7748,17 @@
       <c r="E204">
         <v>15085</v>
       </c>
-      <c r="F204">
+      <c r="F204" t="s">
+        <v>483</v>
+      </c>
+      <c r="G204">
         <v>953</v>
       </c>
-      <c r="G204">
+      <c r="H204">
         <v>679</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -6490,14 +7774,17 @@
       <c r="E205">
         <v>93904</v>
       </c>
-      <c r="F205">
+      <c r="F205" t="s">
+        <v>484</v>
+      </c>
+      <c r="G205">
         <v>209</v>
       </c>
-      <c r="G205">
+      <c r="H205">
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -6513,14 +7800,17 @@
       <c r="E206">
         <v>55365</v>
       </c>
-      <c r="F206">
+      <c r="F206" t="s">
+        <v>485</v>
+      </c>
+      <c r="G206">
         <v>796</v>
       </c>
-      <c r="G206">
+      <c r="H206">
         <v>665</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -6536,14 +7826,17 @@
       <c r="E207">
         <v>34814</v>
       </c>
-      <c r="F207">
+      <c r="F207" t="s">
+        <v>486</v>
+      </c>
+      <c r="G207">
         <v>728</v>
       </c>
-      <c r="G207">
+      <c r="H207">
         <v>139</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -6559,14 +7852,17 @@
       <c r="E208">
         <v>47194</v>
       </c>
-      <c r="F208">
+      <c r="F208" t="s">
+        <v>487</v>
+      </c>
+      <c r="G208">
         <v>387</v>
       </c>
-      <c r="G208">
+      <c r="H208">
         <v>116</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -6582,14 +7878,17 @@
       <c r="E209">
         <v>69730</v>
       </c>
-      <c r="F209">
+      <c r="F209" t="s">
+        <v>488</v>
+      </c>
+      <c r="G209">
         <v>6</v>
       </c>
-      <c r="G209">
+      <c r="H209">
         <v>489</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -6605,14 +7904,17 @@
       <c r="E210">
         <v>63749</v>
       </c>
-      <c r="F210">
+      <c r="F210" t="s">
+        <v>489</v>
+      </c>
+      <c r="G210">
         <v>76</v>
       </c>
-      <c r="G210">
+      <c r="H210">
         <v>358</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -6628,14 +7930,17 @@
       <c r="E211">
         <v>53226</v>
       </c>
-      <c r="F211">
+      <c r="F211" t="s">
+        <v>426</v>
+      </c>
+      <c r="G211">
         <v>145</v>
       </c>
-      <c r="G211">
+      <c r="H211">
         <v>987</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -6651,14 +7956,17 @@
       <c r="E212">
         <v>12619</v>
       </c>
-      <c r="F212">
+      <c r="F212" t="s">
+        <v>490</v>
+      </c>
+      <c r="G212">
         <v>561</v>
       </c>
-      <c r="G212">
+      <c r="H212">
         <v>846</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -6674,14 +7982,17 @@
       <c r="E213">
         <v>61610</v>
       </c>
-      <c r="F213">
+      <c r="F213" t="s">
+        <v>491</v>
+      </c>
+      <c r="G213">
         <v>232</v>
       </c>
-      <c r="G213">
+      <c r="H213">
         <v>750</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -6697,14 +8008,17 @@
       <c r="E214">
         <v>56572</v>
       </c>
-      <c r="F214">
+      <c r="F214" t="s">
+        <v>387</v>
+      </c>
+      <c r="G214">
         <v>797</v>
       </c>
-      <c r="G214">
+      <c r="H214">
         <v>631</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -6720,14 +8034,17 @@
       <c r="E215">
         <v>82958</v>
       </c>
-      <c r="F215">
+      <c r="F215" t="s">
+        <v>458</v>
+      </c>
+      <c r="G215">
         <v>104</v>
       </c>
-      <c r="G215">
+      <c r="H215">
         <v>854</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -6743,14 +8060,17 @@
       <c r="E216">
         <v>97623</v>
       </c>
-      <c r="F216">
+      <c r="F216" t="s">
+        <v>492</v>
+      </c>
+      <c r="G216">
         <v>259</v>
       </c>
-      <c r="G216">
+      <c r="H216">
         <v>839</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -6766,14 +8086,17 @@
       <c r="E217">
         <v>69827</v>
       </c>
-      <c r="F217">
+      <c r="F217" t="s">
+        <v>493</v>
+      </c>
+      <c r="G217">
         <v>148</v>
       </c>
-      <c r="G217">
+      <c r="H217">
         <v>706</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -6789,14 +8112,17 @@
       <c r="E218">
         <v>70496</v>
       </c>
-      <c r="F218">
+      <c r="F218" t="s">
+        <v>364</v>
+      </c>
+      <c r="G218">
         <v>186</v>
       </c>
-      <c r="G218">
+      <c r="H218">
         <v>850</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -6812,14 +8138,17 @@
       <c r="E219">
         <v>73296</v>
       </c>
-      <c r="F219">
+      <c r="F219" t="s">
+        <v>494</v>
+      </c>
+      <c r="G219">
         <v>36</v>
       </c>
-      <c r="G219">
+      <c r="H219">
         <v>554</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -6835,14 +8164,17 @@
       <c r="E220">
         <v>46497</v>
       </c>
-      <c r="F220">
+      <c r="F220" t="s">
+        <v>495</v>
+      </c>
+      <c r="G220">
         <v>956</v>
       </c>
-      <c r="G220">
+      <c r="H220">
         <v>129</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -6858,14 +8190,17 @@
       <c r="E221">
         <v>16042</v>
       </c>
-      <c r="F221">
+      <c r="F221" t="s">
+        <v>496</v>
+      </c>
+      <c r="G221">
         <v>299</v>
       </c>
-      <c r="G221">
+      <c r="H221">
         <v>639</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -6881,14 +8216,17 @@
       <c r="E222">
         <v>74287</v>
       </c>
-      <c r="F222">
+      <c r="F222" t="s">
+        <v>497</v>
+      </c>
+      <c r="G222">
         <v>434</v>
       </c>
-      <c r="G222">
+      <c r="H222">
         <v>110</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -6904,14 +8242,17 @@
       <c r="E223">
         <v>43255</v>
       </c>
-      <c r="F223">
+      <c r="F223" t="s">
+        <v>423</v>
+      </c>
+      <c r="G223">
         <v>778</v>
       </c>
-      <c r="G223">
+      <c r="H223">
         <v>792</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -6927,14 +8268,17 @@
       <c r="E224">
         <v>23574</v>
       </c>
-      <c r="F224">
+      <c r="F224" t="s">
+        <v>317</v>
+      </c>
+      <c r="G224">
         <v>674</v>
       </c>
-      <c r="G224">
+      <c r="H224">
         <v>890</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -6950,14 +8294,17 @@
       <c r="E225">
         <v>63420</v>
       </c>
-      <c r="F225">
+      <c r="F225" t="s">
+        <v>345</v>
+      </c>
+      <c r="G225">
         <v>811</v>
       </c>
-      <c r="G225">
+      <c r="H225">
         <v>360</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -6973,14 +8320,17 @@
       <c r="E226">
         <v>47568</v>
       </c>
-      <c r="F226">
+      <c r="F226" t="s">
+        <v>472</v>
+      </c>
+      <c r="G226">
         <v>207</v>
       </c>
-      <c r="G226">
+      <c r="H226">
         <v>692</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -6996,14 +8346,17 @@
       <c r="E227">
         <v>41804</v>
       </c>
-      <c r="F227">
+      <c r="F227" t="s">
+        <v>428</v>
+      </c>
+      <c r="G227">
         <v>188</v>
       </c>
-      <c r="G227">
+      <c r="H227">
         <v>792</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -7019,14 +8372,17 @@
       <c r="E228">
         <v>75333</v>
       </c>
-      <c r="F228">
+      <c r="F228" t="s">
+        <v>465</v>
+      </c>
+      <c r="G228">
         <v>140</v>
       </c>
-      <c r="G228">
+      <c r="H228">
         <v>210</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -7042,14 +8398,17 @@
       <c r="E229">
         <v>78506</v>
       </c>
-      <c r="F229">
+      <c r="F229" t="s">
+        <v>476</v>
+      </c>
+      <c r="G229">
         <v>770</v>
       </c>
-      <c r="G229">
+      <c r="H229">
         <v>825</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -7065,14 +8424,17 @@
       <c r="E230">
         <v>97362</v>
       </c>
-      <c r="F230">
+      <c r="F230" t="s">
+        <v>381</v>
+      </c>
+      <c r="G230">
         <v>565</v>
       </c>
-      <c r="G230">
+      <c r="H230">
         <v>649</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -7088,14 +8450,17 @@
       <c r="E231">
         <v>56333</v>
       </c>
-      <c r="F231">
+      <c r="F231" t="s">
+        <v>498</v>
+      </c>
+      <c r="G231">
         <v>778</v>
       </c>
-      <c r="G231">
+      <c r="H231">
         <v>826</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -7111,14 +8476,17 @@
       <c r="E232">
         <v>23686</v>
       </c>
-      <c r="F232">
+      <c r="F232" t="s">
+        <v>364</v>
+      </c>
+      <c r="G232">
         <v>735</v>
       </c>
-      <c r="G232">
+      <c r="H232">
         <v>648</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -7134,14 +8502,17 @@
       <c r="E233">
         <v>24540</v>
       </c>
-      <c r="F233">
+      <c r="F233" t="s">
+        <v>499</v>
+      </c>
+      <c r="G233">
         <v>548</v>
       </c>
-      <c r="G233">
+      <c r="H233">
         <v>310</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -7157,14 +8528,17 @@
       <c r="E234">
         <v>85579</v>
       </c>
-      <c r="F234">
+      <c r="F234" t="s">
+        <v>500</v>
+      </c>
+      <c r="G234">
         <v>651</v>
       </c>
-      <c r="G234">
+      <c r="H234">
         <v>652</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -7180,14 +8554,17 @@
       <c r="E235">
         <v>81759</v>
       </c>
-      <c r="F235">
+      <c r="F235" t="s">
+        <v>437</v>
+      </c>
+      <c r="G235">
         <v>789</v>
       </c>
-      <c r="G235">
+      <c r="H235">
         <v>242</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -7203,14 +8580,17 @@
       <c r="E236">
         <v>74431</v>
       </c>
-      <c r="F236">
+      <c r="F236" t="s">
+        <v>340</v>
+      </c>
+      <c r="G236">
         <v>945</v>
       </c>
-      <c r="G236">
+      <c r="H236">
         <v>99</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -7226,14 +8606,17 @@
       <c r="E237">
         <v>97615</v>
       </c>
-      <c r="F237">
+      <c r="F237" t="s">
+        <v>476</v>
+      </c>
+      <c r="G237">
         <v>646</v>
       </c>
-      <c r="G237">
+      <c r="H237">
         <v>36</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -7249,14 +8632,17 @@
       <c r="E238">
         <v>89931</v>
       </c>
-      <c r="F238">
+      <c r="F238" t="s">
+        <v>501</v>
+      </c>
+      <c r="G238">
         <v>248</v>
       </c>
-      <c r="G238">
+      <c r="H238">
         <v>359</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -7272,14 +8658,17 @@
       <c r="E239">
         <v>44450</v>
       </c>
-      <c r="F239">
+      <c r="F239" t="s">
+        <v>480</v>
+      </c>
+      <c r="G239">
         <v>620</v>
       </c>
-      <c r="G239">
+      <c r="H239">
         <v>651</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -7295,14 +8684,17 @@
       <c r="E240">
         <v>47737</v>
       </c>
-      <c r="F240">
+      <c r="F240" t="s">
+        <v>421</v>
+      </c>
+      <c r="G240">
         <v>272</v>
       </c>
-      <c r="G240">
+      <c r="H240">
         <v>313</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -7318,14 +8710,17 @@
       <c r="E241">
         <v>31148</v>
       </c>
-      <c r="F241">
+      <c r="F241" t="s">
+        <v>502</v>
+      </c>
+      <c r="G241">
         <v>600</v>
       </c>
-      <c r="G241">
+      <c r="H241">
         <v>578</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -7341,14 +8736,17 @@
       <c r="E242">
         <v>66193</v>
       </c>
-      <c r="F242">
+      <c r="F242" t="s">
+        <v>395</v>
+      </c>
+      <c r="G242">
         <v>603</v>
       </c>
-      <c r="G242">
+      <c r="H242">
         <v>566</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -7364,14 +8762,17 @@
       <c r="E243">
         <v>18135</v>
       </c>
-      <c r="F243">
+      <c r="F243" t="s">
+        <v>503</v>
+      </c>
+      <c r="G243">
         <v>37</v>
       </c>
-      <c r="G243">
+      <c r="H243">
         <v>270</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -7387,14 +8788,17 @@
       <c r="E244">
         <v>46329</v>
       </c>
-      <c r="F244">
+      <c r="F244" t="s">
+        <v>504</v>
+      </c>
+      <c r="G244">
         <v>32</v>
       </c>
-      <c r="G244">
+      <c r="H244">
         <v>670</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -7410,14 +8814,17 @@
       <c r="E245">
         <v>46578</v>
       </c>
-      <c r="F245">
+      <c r="F245" t="s">
+        <v>376</v>
+      </c>
+      <c r="G245">
         <v>370</v>
       </c>
-      <c r="G245">
+      <c r="H245">
         <v>375</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -7433,14 +8840,17 @@
       <c r="E246">
         <v>19187</v>
       </c>
-      <c r="F246">
+      <c r="F246" t="s">
+        <v>403</v>
+      </c>
+      <c r="G246">
         <v>273</v>
       </c>
-      <c r="G246">
+      <c r="H246">
         <v>252</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -7456,14 +8866,17 @@
       <c r="E247">
         <v>60276</v>
       </c>
-      <c r="F247">
+      <c r="F247" t="s">
+        <v>505</v>
+      </c>
+      <c r="G247">
         <v>990</v>
       </c>
-      <c r="G247">
+      <c r="H247">
         <v>766</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -7479,14 +8892,17 @@
       <c r="E248">
         <v>52439</v>
       </c>
-      <c r="F248">
+      <c r="F248" t="s">
+        <v>379</v>
+      </c>
+      <c r="G248">
         <v>1</v>
       </c>
-      <c r="G248">
+      <c r="H248">
         <v>842</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -7502,14 +8918,17 @@
       <c r="E249">
         <v>26708</v>
       </c>
-      <c r="F249">
+      <c r="F249" t="s">
+        <v>371</v>
+      </c>
+      <c r="G249">
         <v>417</v>
       </c>
-      <c r="G249">
+      <c r="H249">
         <v>212</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -7525,14 +8944,17 @@
       <c r="E250">
         <v>76469</v>
       </c>
-      <c r="F250">
+      <c r="F250" t="s">
+        <v>506</v>
+      </c>
+      <c r="G250">
         <v>349</v>
       </c>
-      <c r="G250">
+      <c r="H250">
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -7548,14 +8970,17 @@
       <c r="E251">
         <v>39585</v>
       </c>
-      <c r="F251">
+      <c r="F251" t="s">
+        <v>457</v>
+      </c>
+      <c r="G251">
         <v>20</v>
       </c>
-      <c r="G251">
+      <c r="H251">
         <v>766</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -7571,14 +8996,17 @@
       <c r="E252">
         <v>20581</v>
       </c>
-      <c r="F252">
+      <c r="F252" t="s">
+        <v>507</v>
+      </c>
+      <c r="G252">
         <v>522</v>
       </c>
-      <c r="G252">
+      <c r="H252">
         <v>152</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -7594,14 +9022,17 @@
       <c r="E253">
         <v>37326</v>
       </c>
-      <c r="F253">
+      <c r="F253" t="s">
+        <v>508</v>
+      </c>
+      <c r="G253">
         <v>92</v>
       </c>
-      <c r="G253">
+      <c r="H253">
         <v>725</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -7617,14 +9048,17 @@
       <c r="E254">
         <v>26550</v>
       </c>
-      <c r="F254">
+      <c r="F254" t="s">
+        <v>509</v>
+      </c>
+      <c r="G254">
         <v>110</v>
       </c>
-      <c r="G254">
+      <c r="H254">
         <v>773</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -7640,14 +9074,17 @@
       <c r="E255">
         <v>40293</v>
       </c>
-      <c r="F255">
+      <c r="F255" t="s">
+        <v>510</v>
+      </c>
+      <c r="G255">
         <v>123</v>
       </c>
-      <c r="G255">
+      <c r="H255">
         <v>176</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -7663,14 +9100,17 @@
       <c r="E256">
         <v>52222</v>
       </c>
-      <c r="F256">
+      <c r="F256" t="s">
+        <v>459</v>
+      </c>
+      <c r="G256">
         <v>249</v>
       </c>
-      <c r="G256">
+      <c r="H256">
         <v>101</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -7686,14 +9126,17 @@
       <c r="E257">
         <v>57683</v>
       </c>
-      <c r="F257">
+      <c r="F257" t="s">
+        <v>511</v>
+      </c>
+      <c r="G257">
         <v>82</v>
       </c>
-      <c r="G257">
+      <c r="H257">
         <v>425</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -7709,14 +9152,17 @@
       <c r="E258">
         <v>48773</v>
       </c>
-      <c r="F258">
+      <c r="F258" t="s">
+        <v>512</v>
+      </c>
+      <c r="G258">
         <v>470</v>
       </c>
-      <c r="G258">
+      <c r="H258">
         <v>801</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -7732,14 +9178,17 @@
       <c r="E259">
         <v>24615</v>
       </c>
-      <c r="F259">
+      <c r="F259" t="s">
+        <v>513</v>
+      </c>
+      <c r="G259">
         <v>910</v>
       </c>
-      <c r="G259">
+      <c r="H259">
         <v>114</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -7755,14 +9204,17 @@
       <c r="E260">
         <v>24257</v>
       </c>
-      <c r="F260">
+      <c r="F260" t="s">
+        <v>444</v>
+      </c>
+      <c r="G260">
         <v>121</v>
       </c>
-      <c r="G260">
+      <c r="H260">
         <v>338</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -7778,14 +9230,17 @@
       <c r="E261">
         <v>72803</v>
       </c>
-      <c r="F261">
+      <c r="F261" t="s">
+        <v>331</v>
+      </c>
+      <c r="G261">
         <v>90</v>
       </c>
-      <c r="G261">
+      <c r="H261">
         <v>794</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -7801,14 +9256,17 @@
       <c r="E262">
         <v>23968</v>
       </c>
-      <c r="F262">
+      <c r="F262" t="s">
+        <v>514</v>
+      </c>
+      <c r="G262">
         <v>400</v>
       </c>
-      <c r="G262">
+      <c r="H262">
         <v>936</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -7824,14 +9282,17 @@
       <c r="E263">
         <v>48793</v>
       </c>
-      <c r="F263">
+      <c r="F263" t="s">
+        <v>515</v>
+      </c>
+      <c r="G263">
         <v>553</v>
       </c>
-      <c r="G263">
+      <c r="H263">
         <v>309</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -7847,14 +9308,17 @@
       <c r="E264">
         <v>52467</v>
       </c>
-      <c r="F264">
+      <c r="F264" t="s">
+        <v>516</v>
+      </c>
+      <c r="G264">
         <v>397</v>
       </c>
-      <c r="G264">
+      <c r="H264">
         <v>15</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -7870,14 +9334,17 @@
       <c r="E265">
         <v>54492</v>
       </c>
-      <c r="F265">
+      <c r="F265" t="s">
+        <v>517</v>
+      </c>
+      <c r="G265">
         <v>22</v>
       </c>
-      <c r="G265">
+      <c r="H265">
         <v>979</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -7893,14 +9360,17 @@
       <c r="E266">
         <v>44910</v>
       </c>
-      <c r="F266">
+      <c r="F266" t="s">
+        <v>518</v>
+      </c>
+      <c r="G266">
         <v>424</v>
       </c>
-      <c r="G266">
+      <c r="H266">
         <v>713</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -7916,14 +9386,17 @@
       <c r="E267">
         <v>84631</v>
       </c>
-      <c r="F267">
+      <c r="F267" t="s">
+        <v>519</v>
+      </c>
+      <c r="G267">
         <v>862</v>
       </c>
-      <c r="G267">
+      <c r="H267">
         <v>484</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -7939,14 +9412,17 @@
       <c r="E268">
         <v>65622</v>
       </c>
-      <c r="F268">
+      <c r="F268" t="s">
+        <v>520</v>
+      </c>
+      <c r="G268">
         <v>233</v>
       </c>
-      <c r="G268">
+      <c r="H268">
         <v>799</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -7962,14 +9438,17 @@
       <c r="E269">
         <v>14896</v>
       </c>
-      <c r="F269">
+      <c r="F269" t="s">
+        <v>504</v>
+      </c>
+      <c r="G269">
         <v>893</v>
       </c>
-      <c r="G269">
+      <c r="H269">
         <v>103</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -7985,14 +9464,17 @@
       <c r="E270">
         <v>35037</v>
       </c>
-      <c r="F270">
+      <c r="F270" t="s">
+        <v>467</v>
+      </c>
+      <c r="G270">
         <v>15</v>
       </c>
-      <c r="G270">
+      <c r="H270">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -8008,14 +9490,17 @@
       <c r="E271">
         <v>76893</v>
       </c>
-      <c r="F271">
+      <c r="F271" t="s">
+        <v>521</v>
+      </c>
+      <c r="G271">
         <v>680</v>
       </c>
-      <c r="G271">
+      <c r="H271">
         <v>825</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -8031,14 +9516,17 @@
       <c r="E272">
         <v>86316</v>
       </c>
-      <c r="F272">
+      <c r="F272" t="s">
+        <v>522</v>
+      </c>
+      <c r="G272">
         <v>124</v>
       </c>
-      <c r="G272">
+      <c r="H272">
         <v>838</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -8054,14 +9542,17 @@
       <c r="E273">
         <v>28090</v>
       </c>
-      <c r="F273">
+      <c r="F273" t="s">
+        <v>523</v>
+      </c>
+      <c r="G273">
         <v>573</v>
       </c>
-      <c r="G273">
+      <c r="H273">
         <v>698</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -8077,14 +9568,17 @@
       <c r="E274">
         <v>47704</v>
       </c>
-      <c r="F274">
+      <c r="F274" t="s">
+        <v>524</v>
+      </c>
+      <c r="G274">
         <v>400</v>
       </c>
-      <c r="G274">
+      <c r="H274">
         <v>71</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -8100,14 +9594,17 @@
       <c r="E275">
         <v>50513</v>
       </c>
-      <c r="F275">
+      <c r="F275" t="s">
+        <v>525</v>
+      </c>
+      <c r="G275">
         <v>93</v>
       </c>
-      <c r="G275">
+      <c r="H275">
         <v>562</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -8123,14 +9620,17 @@
       <c r="E276">
         <v>42902</v>
       </c>
-      <c r="F276">
+      <c r="F276" t="s">
+        <v>526</v>
+      </c>
+      <c r="G276">
         <v>541</v>
       </c>
-      <c r="G276">
+      <c r="H276">
         <v>425</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -8146,14 +9646,17 @@
       <c r="E277">
         <v>57715</v>
       </c>
-      <c r="F277">
+      <c r="F277" t="s">
+        <v>399</v>
+      </c>
+      <c r="G277">
         <v>432</v>
       </c>
-      <c r="G277">
+      <c r="H277">
         <v>632</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -8169,14 +9672,17 @@
       <c r="E278">
         <v>68485</v>
       </c>
-      <c r="F278">
+      <c r="F278" t="s">
+        <v>338</v>
+      </c>
+      <c r="G278">
         <v>441</v>
       </c>
-      <c r="G278">
+      <c r="H278">
         <v>623</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -8192,14 +9698,17 @@
       <c r="E279">
         <v>84835</v>
       </c>
-      <c r="F279">
+      <c r="F279" t="s">
+        <v>527</v>
+      </c>
+      <c r="G279">
         <v>365</v>
       </c>
-      <c r="G279">
+      <c r="H279">
         <v>512</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -8215,14 +9724,17 @@
       <c r="E280">
         <v>53761</v>
       </c>
-      <c r="F280">
+      <c r="F280" t="s">
+        <v>437</v>
+      </c>
+      <c r="G280">
         <v>554</v>
       </c>
-      <c r="G280">
+      <c r="H280">
         <v>935</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -8238,14 +9750,17 @@
       <c r="E281">
         <v>91268</v>
       </c>
-      <c r="F281">
+      <c r="F281" t="s">
+        <v>528</v>
+      </c>
+      <c r="G281">
         <v>656</v>
       </c>
-      <c r="G281">
+      <c r="H281">
         <v>962</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -8261,14 +9776,17 @@
       <c r="E282">
         <v>43880</v>
       </c>
-      <c r="F282">
+      <c r="F282" t="s">
+        <v>415</v>
+      </c>
+      <c r="G282">
         <v>338</v>
       </c>
-      <c r="G282">
+      <c r="H282">
         <v>669</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -8284,14 +9802,17 @@
       <c r="E283">
         <v>63116</v>
       </c>
-      <c r="F283">
+      <c r="F283" t="s">
+        <v>356</v>
+      </c>
+      <c r="G283">
         <v>331</v>
       </c>
-      <c r="G283">
+      <c r="H283">
         <v>292</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -8307,14 +9828,17 @@
       <c r="E284">
         <v>82367</v>
       </c>
-      <c r="F284">
+      <c r="F284" t="s">
+        <v>529</v>
+      </c>
+      <c r="G284">
         <v>206</v>
       </c>
-      <c r="G284">
+      <c r="H284">
         <v>151</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -8330,14 +9854,17 @@
       <c r="E285">
         <v>28568</v>
       </c>
-      <c r="F285">
+      <c r="F285" t="s">
+        <v>530</v>
+      </c>
+      <c r="G285">
         <v>298</v>
       </c>
-      <c r="G285">
+      <c r="H285">
         <v>702</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -8353,14 +9880,17 @@
       <c r="E286">
         <v>92015</v>
       </c>
-      <c r="F286">
+      <c r="F286" t="s">
+        <v>491</v>
+      </c>
+      <c r="G286">
         <v>664</v>
       </c>
-      <c r="G286">
+      <c r="H286">
         <v>769</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -8376,14 +9906,17 @@
       <c r="E287">
         <v>25795</v>
       </c>
-      <c r="F287">
+      <c r="F287" t="s">
+        <v>531</v>
+      </c>
+      <c r="G287">
         <v>617</v>
       </c>
-      <c r="G287">
+      <c r="H287">
         <v>466</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -8399,14 +9932,17 @@
       <c r="E288">
         <v>78504</v>
       </c>
-      <c r="F288">
+      <c r="F288" t="s">
+        <v>532</v>
+      </c>
+      <c r="G288">
         <v>519</v>
       </c>
-      <c r="G288">
+      <c r="H288">
         <v>612</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -8422,14 +9958,17 @@
       <c r="E289">
         <v>92842</v>
       </c>
-      <c r="F289">
+      <c r="F289" t="s">
+        <v>533</v>
+      </c>
+      <c r="G289">
         <v>235</v>
       </c>
-      <c r="G289">
+      <c r="H289">
         <v>586</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -8445,14 +9984,17 @@
       <c r="E290">
         <v>27223</v>
       </c>
-      <c r="F290">
+      <c r="F290" t="s">
+        <v>534</v>
+      </c>
+      <c r="G290">
         <v>226</v>
       </c>
-      <c r="G290">
+      <c r="H290">
         <v>155</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -8468,14 +10010,17 @@
       <c r="E291">
         <v>28706</v>
       </c>
-      <c r="F291">
+      <c r="F291" t="s">
+        <v>522</v>
+      </c>
+      <c r="G291">
         <v>442</v>
       </c>
-      <c r="G291">
+      <c r="H291">
         <v>760</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -8491,14 +10036,17 @@
       <c r="E292">
         <v>58854</v>
       </c>
-      <c r="F292">
+      <c r="F292" t="s">
+        <v>529</v>
+      </c>
+      <c r="G292">
         <v>932</v>
       </c>
-      <c r="G292">
+      <c r="H292">
         <v>663</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -8514,14 +10062,17 @@
       <c r="E293">
         <v>60791</v>
       </c>
-      <c r="F293">
+      <c r="F293" t="s">
+        <v>535</v>
+      </c>
+      <c r="G293">
         <v>284</v>
       </c>
-      <c r="G293">
+      <c r="H293">
         <v>447</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -8537,14 +10088,17 @@
       <c r="E294">
         <v>66264</v>
       </c>
-      <c r="F294">
+      <c r="F294" t="s">
+        <v>536</v>
+      </c>
+      <c r="G294">
         <v>854</v>
       </c>
-      <c r="G294">
+      <c r="H294">
         <v>922</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -8560,14 +10114,17 @@
       <c r="E295">
         <v>20452</v>
       </c>
-      <c r="F295">
+      <c r="F295" t="s">
+        <v>381</v>
+      </c>
+      <c r="G295">
         <v>430</v>
       </c>
-      <c r="G295">
+      <c r="H295">
         <v>503</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -8583,14 +10140,17 @@
       <c r="E296">
         <v>33758</v>
       </c>
-      <c r="F296">
+      <c r="F296" t="s">
+        <v>537</v>
+      </c>
+      <c r="G296">
         <v>172</v>
       </c>
-      <c r="G296">
+      <c r="H296">
         <v>24</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -8606,14 +10166,17 @@
       <c r="E297">
         <v>54444</v>
       </c>
-      <c r="F297">
+      <c r="F297" t="s">
+        <v>486</v>
+      </c>
+      <c r="G297">
         <v>955</v>
       </c>
-      <c r="G297">
+      <c r="H297">
         <v>400</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -8629,14 +10192,17 @@
       <c r="E298">
         <v>28238</v>
       </c>
-      <c r="F298">
+      <c r="F298" t="s">
+        <v>416</v>
+      </c>
+      <c r="G298">
         <v>514</v>
       </c>
-      <c r="G298">
+      <c r="H298">
         <v>172</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -8652,14 +10218,17 @@
       <c r="E299">
         <v>62027</v>
       </c>
-      <c r="F299">
+      <c r="F299" t="s">
+        <v>538</v>
+      </c>
+      <c r="G299">
         <v>740</v>
       </c>
-      <c r="G299">
+      <c r="H299">
         <v>663</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -8675,14 +10244,17 @@
       <c r="E300">
         <v>39710</v>
       </c>
-      <c r="F300">
+      <c r="F300" t="s">
+        <v>379</v>
+      </c>
+      <c r="G300">
         <v>680</v>
       </c>
-      <c r="G300">
+      <c r="H300">
         <v>965</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -8698,10 +10270,13 @@
       <c r="E301">
         <v>87146</v>
       </c>
-      <c r="F301">
+      <c r="F301" t="s">
+        <v>422</v>
+      </c>
+      <c r="G301">
         <v>112</v>
       </c>
-      <c r="G301">
+      <c r="H301">
         <v>869</v>
       </c>
     </row>
